--- a/public/excel/plantillaInstructor.xlsx
+++ b/public/excel/plantillaInstructor.xlsx
@@ -31,7 +31,7 @@
     <t>ciudad</t>
   </si>
   <si>
-    <t>correo</t>
+    <t>email</t>
   </si>
   <si>
     <t>telefono</t>
@@ -50,7 +50,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -62,11 +62,6 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF333333"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -77,8 +72,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -88,18 +83,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -351,18 +343,12 @@
     </row>
     <row r="2">
       <c r="E2" s="2"/>
-      <c r="J2" s="3"/>
-      <c r="L2" s="2"/>
     </row>
     <row r="3">
       <c r="E3" s="2"/>
-      <c r="J3" s="3"/>
-      <c r="L3" s="2"/>
     </row>
     <row r="4">
       <c r="E4" s="2"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
